--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ccl2-Ackr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ccl2-Ackr2.xlsx
@@ -528,34 +528,34 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.9166314503306</v>
+        <v>56.47185866666666</v>
       </c>
       <c r="H2">
-        <v>27.9166314503306</v>
+        <v>169.415576</v>
       </c>
       <c r="I2">
-        <v>0.724883327189817</v>
+        <v>0.8070274173741353</v>
       </c>
       <c r="J2">
-        <v>0.724883327189817</v>
+        <v>0.8070274173741354</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.3177879147171</v>
+        <v>12.35607266666667</v>
       </c>
       <c r="N2">
-        <v>12.3177879147171</v>
+        <v>37.068218</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>343.8711454984935</v>
+        <v>697.7703893070632</v>
       </c>
       <c r="R2">
-        <v>343.8711454984935</v>
+        <v>6279.933503763567</v>
       </c>
       <c r="S2">
-        <v>0.724883327189817</v>
+        <v>0.8070274173741353</v>
       </c>
       <c r="T2">
-        <v>0.724883327189817</v>
+        <v>0.8070274173741354</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.8671696243748</v>
+        <v>10.23495333333333</v>
       </c>
       <c r="H3">
-        <v>7.8671696243748</v>
+        <v>30.70486</v>
       </c>
       <c r="I3">
-        <v>0.204278947588282</v>
+        <v>0.1462655586439962</v>
       </c>
       <c r="J3">
-        <v>0.204278947588282</v>
+        <v>0.1462655586439962</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.3177879147171</v>
+        <v>12.35607266666667</v>
       </c>
       <c r="N3">
-        <v>12.3177879147171</v>
+        <v>37.068218</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>96.90612692215338</v>
+        <v>126.4638271266089</v>
       </c>
       <c r="R3">
-        <v>96.90612692215338</v>
+        <v>1138.17444413948</v>
       </c>
       <c r="S3">
-        <v>0.204278947588282</v>
+        <v>0.1462655586439962</v>
       </c>
       <c r="T3">
-        <v>0.204278947588282</v>
+        <v>0.1462655586439962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.72809512044655</v>
+        <v>3.268330666666667</v>
       </c>
       <c r="H4">
-        <v>2.72809512044655</v>
+        <v>9.804992</v>
       </c>
       <c r="I4">
-        <v>0.07083772522190104</v>
+        <v>0.04670702398186845</v>
       </c>
       <c r="J4">
-        <v>0.07083772522190104</v>
+        <v>0.04670702398186846</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.3177879147171</v>
+        <v>12.35607266666667</v>
       </c>
       <c r="N4">
-        <v>12.3177879147171</v>
+        <v>37.068218</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>33.6040971048352</v>
+        <v>40.38373121602845</v>
       </c>
       <c r="R4">
-        <v>33.6040971048352</v>
+        <v>363.453580944256</v>
       </c>
       <c r="S4">
-        <v>0.07083772522190104</v>
+        <v>0.04670702398186845</v>
       </c>
       <c r="T4">
-        <v>0.07083772522190104</v>
+        <v>0.04670702398186846</v>
       </c>
     </row>
   </sheetData>
